--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369477.4543381016</v>
+        <v>375532.3614143287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630149.484946809</v>
+        <v>2629876.587221764</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997841.48885469</v>
+        <v>19997574.02179438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902512.962957385</v>
+        <v>4903361.299681757</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="Y2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="W2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D3" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -832,43 +832,43 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J4" t="n">
+      <c r="R4" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,70 +893,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="T5" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1069,43 +1069,43 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J7" t="n">
+      <c r="R7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K7" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="I8" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="X8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D9" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,43 +1306,43 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J10" t="n">
+      <c r="R10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K10" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,58 +1379,58 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H11" t="n">
+      <c r="U11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I11" t="n">
+      <c r="V11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,43 +1461,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="H12" t="n">
+      <c r="S12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I12" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1540,46 +1540,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q13" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I13" t="n">
+      <c r="R13" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J13" t="n">
+      <c r="S13" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S14" t="n">
+      <c r="Y14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T14" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="U14" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,76 +1683,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F15" t="n">
+      <c r="Y15" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="G15" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1777,46 +1777,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q16" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H16" t="n">
+      <c r="R16" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I16" t="n">
+      <c r="S16" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J16" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1895,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2041,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2123,25 +2123,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>62.4162677022923</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.3106286157618</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>180.1631974422643</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>45.0246924387623</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>112.6210095074373</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>218.2545356023572</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>56.17030901074568</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>97.01986919358308</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>99.65611931814406</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,67 +3263,67 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>200.3360962888297</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T36" t="n">
-        <v>53.41906491704556</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3515,16 +3515,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>36.01154716837697</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>63.91606440352532</v>
       </c>
     </row>
     <row r="42">
@@ -3873,16 +3873,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>81.94696239689884</v>
+        <v>41.81663101253974</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>39.58387696184059</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>39.58387696184059</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
     </row>
     <row r="46">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="T46" t="n">
         <v>39.58387696184059</v>
@@ -4192,10 +4192,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="W46" t="n">
-        <v>9.977552361264268</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.29275017052741</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C2" t="n">
-        <v>28.29275017052741</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D2" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N2" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V2" t="n">
-        <v>68.2764642733967</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W2" t="n">
-        <v>28.29275017052741</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X2" t="n">
-        <v>28.29275017052741</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.29275017052741</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="3">
@@ -4386,10 +4386,10 @@
         <v>78.36807964162378</v>
       </c>
       <c r="C3" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D3" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
         <v>3.166710156947247</v>
@@ -4416,13 +4416,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N3" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P3" t="n">
         <v>119.1474696551402</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4504,34 +4504,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E5" t="n">
         <v>3.166710156947247</v>
@@ -4577,10 +4577,10 @@
         <v>120.7308247336138</v>
       </c>
       <c r="N5" t="n">
-        <v>120.7308247336138</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O5" t="n">
-        <v>120.7308247336138</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
@@ -4592,25 +4592,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X5" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.15042425981653</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.920842809732961</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C6" t="n">
-        <v>3.920842809732961</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D6" t="n">
-        <v>3.920842809732961</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E6" t="n">
-        <v>3.920842809732961</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F6" t="n">
-        <v>3.920842809732961</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G6" t="n">
-        <v>3.920842809732961</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H6" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N6" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
         <v>119.1474696551402</v>
@@ -4671,25 +4671,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>43.90455691260225</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>43.90455691260225</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>43.90455691260225</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>43.90455691260225</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.90455691260225</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I8" t="n">
         <v>3.166710156947247</v>
@@ -4844,10 +4844,10 @@
         <v>118.3517937444931</v>
       </c>
       <c r="X8" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.38436553875449</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.15042425981653</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C9" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D9" t="n">
         <v>3.166710156947247</v>
@@ -4884,16 +4884,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O9" t="n">
         <v>119.1474696551402</v>
@@ -4914,19 +4914,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W9" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="X9" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y9" t="n">
-        <v>43.15042425981653</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4981,31 +4981,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>135.1878417126385</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
@@ -5045,16 +5045,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N11" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
@@ -5069,22 +5069,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C12" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
         <v>3.166710156947247</v>
@@ -5121,19 +5121,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>3.166710156947247</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N12" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
         <v>119.1474696551402</v>
@@ -5142,28 +5142,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V12" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W12" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X12" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G13" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H13" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I13" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J13" t="n">
         <v>3.166710156947247</v>
@@ -5215,34 +5215,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C14" t="n">
         <v>3.166710156947247</v>
@@ -5300,28 +5300,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="S14" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="T14" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="U14" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="V14" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="W14" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="X14" t="n">
         <v>118.3517937444931</v>
       </c>
-      <c r="S14" t="n">
+      <c r="Y14" t="n">
         <v>78.36807964162378</v>
-      </c>
-      <c r="T14" t="n">
-        <v>38.38436553875449</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>123.1178524655551</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E15" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
         <v>3.166710156947247</v>
@@ -5361,16 +5361,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P15" t="n">
         <v>119.1474696551402</v>
@@ -5391,16 +5391,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V15" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W15" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X15" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y15" t="n">
-        <v>123.1178524655551</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G16" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H16" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I16" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J16" t="n">
         <v>3.166710156947247</v>
@@ -5452,34 +5452,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C17" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D17" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E17" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M17" t="n">
-        <v>119.1474696551402</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N17" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T17" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U17" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V17" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W17" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X17" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L18" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M18" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N18" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U18" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S19" t="n">
-        <v>93.21247408113457</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="T19" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U19" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V19" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5838,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>555.4877027295624</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>312.0389260854624</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>104.1874258799295</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y21" t="n">
-        <v>104.1874258799295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>305.3006591534979</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C24" t="n">
-        <v>305.3006591534979</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D24" t="n">
-        <v>305.3006591534979</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="E24" t="n">
-        <v>305.3006591534979</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>305.3006591534979</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>305.3006591534979</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>305.3006591534979</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>305.3006591534979</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>305.3006591534979</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6260,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>293.0313262305118</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C27" t="n">
-        <v>293.0313262305118</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D27" t="n">
-        <v>293.0313262305118</v>
+        <v>211.2951883952089</v>
       </c>
       <c r="E27" t="n">
-        <v>133.7938712250563</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>133.7938712250563</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>461.2466632505798</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>461.2466632505798</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W27" t="n">
-        <v>461.2466632505798</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X27" t="n">
-        <v>461.2466632505798</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y27" t="n">
-        <v>461.2466632505798</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="28">
@@ -6412,22 +6412,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6549,16 +6549,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>435.6470747334852</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="31">
@@ -6646,10 +6646,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>380.6017161145382</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>380.6017161145382</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>380.6017161145382</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>279.9389693285341</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>133.4044113554191</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6786,13 +6786,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>380.6017161145382</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>380.6017161145382</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>467.0948956420016</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T36" t="n">
-        <v>910.0985040792771</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>910.0985040792771</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>674.9463958475344</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>674.9463958475344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>467.0948956420016</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>467.0948956420016</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7135,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56.41057593307619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>56.41057593307619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>432.4774131586771</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>432.4774131586771</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>432.4774131586771</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>224.6259129531442</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>224.6259129531442</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>269.8418075726637</v>
       </c>
       <c r="C41" t="n">
-        <v>518.2486856454962</v>
+        <v>269.8418075726637</v>
       </c>
       <c r="D41" t="n">
-        <v>518.2486856454962</v>
+        <v>269.8418075726637</v>
       </c>
       <c r="E41" t="n">
-        <v>518.2486856454962</v>
+        <v>269.8418075726637</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>784.3894110575544</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>573.2580276371045</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>573.2580276371045</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>573.2580276371045</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>573.2580276371045</v>
       </c>
       <c r="W41" t="n">
-        <v>761.6974622895962</v>
+        <v>573.2580276371045</v>
       </c>
       <c r="X41" t="n">
-        <v>761.6974622895962</v>
+        <v>573.2580276371045</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>508.6963464214224</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>693.8259377144041</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>743.6773791998503</v>
       </c>
       <c r="U42" t="n">
-        <v>679.0958513775852</v>
+        <v>701.4383579750627</v>
       </c>
       <c r="V42" t="n">
-        <v>679.0958513775852</v>
+        <v>466.28624974332</v>
       </c>
       <c r="W42" t="n">
-        <v>435.6470747334852</v>
+        <v>227.4317108945613</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>227.4317108945613</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>83.13413836268582</v>
+      </c>
+      <c r="C44" t="n">
+        <v>83.13413836268582</v>
+      </c>
+      <c r="D44" t="n">
+        <v>83.13413836268582</v>
+      </c>
+      <c r="E44" t="n">
+        <v>83.13413836268582</v>
+      </c>
+      <c r="F44" t="n">
         <v>43.15042425981653</v>
-      </c>
-      <c r="C44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="D44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="E44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
         <v>3.166710156947247</v>
@@ -7652,13 +7652,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="M44" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>120.7308247336138</v>
-      </c>
-      <c r="N44" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="O44" t="n">
         <v>158.3355078473624</v>
@@ -7670,28 +7670,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J45" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L45" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L45" t="n">
-        <v>79.95943146291799</v>
-      </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S45" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T45" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U45" t="n">
-        <v>43.15042425981653</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="T46" t="n">
-        <v>93.21247408113457</v>
+        <v>108.2734580260443</v>
       </c>
       <c r="U46" t="n">
-        <v>53.22875997826529</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="V46" t="n">
-        <v>13.245045875396</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="W46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>28.30602982030574</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8064,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
         <v>179.5656510478621</v>
@@ -8225,13 +8225,13 @@
         <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>269.2175241529953</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,7 +8310,7 @@
         <v>180.5807728421703</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>179.5656510478621</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
         <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8693,19 +8693,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
         <v>268.3307616249986</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
         <v>169.3262404810591</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>179.5656510478621</v>
@@ -9009,10 +9009,10 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9021,7 +9021,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q15" t="n">
         <v>179.5656510478621</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9732,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>362.790769105007</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>217.6918724729571</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11300,16 +11300,16 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5389081776</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P45" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,10 +22565,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>197.5503993115741</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>334.8656218504798</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="3">
@@ -22626,13 +22626,13 @@
         <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D3" t="n">
-        <v>107.8611886027982</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E3" t="n">
-        <v>122.7796016274118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,19 +22744,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>347.0648912442726</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22832,10 +22832,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22875,16 +22875,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,13 +22911,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>347.8683628354914</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23036,10 +23036,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,10 +23084,10 @@
         <v>309.6570917555724</v>
       </c>
       <c r="X8" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
-        <v>107.8611886027982</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23154,19 +23154,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>314.3754898894238</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23340,7 +23340,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>347.8683628354914</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23540,16 +23540,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="15">
@@ -23571,22 +23571,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23631,16 +23631,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="16">
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>83.3816277554085</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23732,16 +23732,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23783,16 +23783,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>188.2303707361422</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>186.3575051191342</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V18" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>136.4564102853049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23929,19 +23929,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,25 +24011,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>146.6038018839531</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.22255503410554</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>50.1001388840902</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,10 +24294,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>27.19373373354802</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>45.77818463871051</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>112.6203880166386</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>24.72250765577336</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>130.9864331150558</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>33.22632384066939</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,7 +24819,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>154.6751139673365</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>181.0138317948241</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25002,16 +25002,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>57.98896113725688</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>74.20128542494618</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25047,19 +25047,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>127.4161621813053</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,22 +25281,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T36" t="n">
-        <v>146.745663777776</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,7 +25394,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25403,16 +25403,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>111.4335183962618</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,10 +25637,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>322.3218742525283</v>
       </c>
     </row>
     <row r="42">
@@ -25761,16 +25761,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>143.994419684076</v>
+        <v>184.1247510684351</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>347.8683628354914</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,7 +25877,7 @@
         <v>367.2921687798708</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>346.654061694213</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S45" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>186.3575051191342</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>171.5638082755731</v>
       </c>
     </row>
     <row r="46">
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>214.039045675708</v>
       </c>
       <c r="T46" t="n">
         <v>188.3617124664409</v>
@@ -26080,10 +26080,10 @@
         <v>246.7351523946503</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>276.5454459753267</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355323.8049462886</v>
+        <v>355323.8049462884</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355323.8049462884</v>
+        <v>358720.1596706798</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498779.7423193565</v>
+        <v>498779.7423193563</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498779.7423193567</v>
+        <v>498779.7423193565</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498779.7423193565</v>
+        <v>498779.7423193567</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498779.7423193567</v>
+        <v>498779.7423193565</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498779.7423193564</v>
+        <v>498779.7423193563</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498779.7423193565</v>
+        <v>495544.1393643906</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355323.8049462885</v>
+        <v>355323.8049462886</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88817.09956719899</v>
+        <v>88817.09956719902</v>
       </c>
       <c r="C2" t="n">
         <v>88817.09956719899</v>
@@ -26320,13 +26320,13 @@
         <v>88817.09956719901</v>
       </c>
       <c r="E2" t="n">
-        <v>88817.09956719897</v>
+        <v>88817.09956719898</v>
       </c>
       <c r="F2" t="n">
         <v>88817.09956719897</v>
       </c>
       <c r="G2" t="n">
-        <v>88817.09956719897</v>
+        <v>89664.75401339903</v>
       </c>
       <c r="H2" t="n">
         <v>124620.5043984993</v>
@@ -26350,10 +26350,10 @@
         <v>124620.5043984993</v>
       </c>
       <c r="O2" t="n">
-        <v>124620.5043984993</v>
+        <v>123812.9700113465</v>
       </c>
       <c r="P2" t="n">
-        <v>88817.09956719902</v>
+        <v>88817.09956719899</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30316.85717432712</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="C4" t="n">
-        <v>30316.85717432712</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="D4" t="n">
-        <v>30316.85717432712</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="E4" t="n">
-        <v>30316.85717432712</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="F4" t="n">
-        <v>30316.85717432712</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="G4" t="n">
-        <v>30316.85717432712</v>
+        <v>29986.26547774717</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>42895.25425991549</v>
+        <v>41739.48609806577</v>
       </c>
       <c r="P4" t="n">
-        <v>30316.85717432712</v>
+        <v>29694.5175950296</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,7 +26506,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
         <v>2406.699719279908</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9200.475074509064</v>
+        <v>9822.814653806607</v>
       </c>
       <c r="C6" t="n">
-        <v>22465.94267359196</v>
+        <v>23088.28225288949</v>
       </c>
       <c r="D6" t="n">
-        <v>22465.94267359198</v>
+        <v>23088.2822528895</v>
       </c>
       <c r="E6" t="n">
-        <v>56093.54267359193</v>
+        <v>56715.88225288947</v>
       </c>
       <c r="F6" t="n">
-        <v>56093.54267359193</v>
+        <v>56715.88225288945</v>
       </c>
       <c r="G6" t="n">
-        <v>56093.54267359193</v>
+        <v>55748.63290551997</v>
       </c>
       <c r="H6" t="n">
-        <v>12723.84336622706</v>
+        <v>14828.84330851646</v>
       </c>
       <c r="I6" t="n">
-        <v>67071.58137482213</v>
+        <v>67949.41027884147</v>
       </c>
       <c r="J6" t="n">
-        <v>56714.6974710183</v>
+        <v>57592.52637503765</v>
       </c>
       <c r="K6" t="n">
-        <v>67071.5813748221</v>
+        <v>67949.41027884147</v>
       </c>
       <c r="L6" t="n">
-        <v>67071.58137482214</v>
+        <v>67949.41027884147</v>
       </c>
       <c r="M6" t="n">
-        <v>67071.58137482211</v>
+        <v>67949.41027884149</v>
       </c>
       <c r="N6" t="n">
-        <v>67071.5813748221</v>
+        <v>67949.41027884147</v>
       </c>
       <c r="O6" t="n">
-        <v>67071.58137482216</v>
+        <v>67696.35151089626</v>
       </c>
       <c r="P6" t="n">
-        <v>56093.54267359199</v>
+        <v>56715.88225288949</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26802,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,7 +26826,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
         <v>39.58387696184059</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N3" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>39.58387696184059</v>
@@ -34945,13 +34945,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35030,7 @@
         <v>37.98452839772582</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>39.58387696184059</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>39.58387696184059</v>
@@ -35729,19 +35729,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
         <v>39.58387696184059</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36206,16 +36206,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36452,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>132.6925576833202</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37865,13 +37865,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>86.35016038962375</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38020,16 +38020,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="O44" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="O45" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
